--- a/Вопросы.xlsx
+++ b/Вопросы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\github\custinsights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2F5E31-8A52-4B5B-8ED4-E37B3385177A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8EAFF8-ADAE-48E6-ADFA-20FEDB295C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="28800" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:D260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -455,7 +455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -465,7 +465,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
